--- a/Check.xlsx
+++ b/Check.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>Блок</t>
   </si>
@@ -54,343 +54,37 @@
     <t>2. Поле "Пароль"</t>
   </si>
   <si>
-    <t>ТС-14. Фильтрация заявок по критерию "Открыта" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-15. Фильтрация заявок по критерию "В работе" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-16. Фильтрация заявок по критерию "Выполнена" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-17. Фильтрация заявок по критерию "Отмененные" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-18. Создание заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-19. Поле "Тема" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-20. Поле "Тема" состоит из одного символа, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-21. Поле "Тема" состоит из максимально-допустимого количества символов, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-22. Поле "Исполнитель" пустое, при создании заявки, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-23. Ввод в поле "Исполнитель" данных, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-24. Поле "Исполнитель" состоит из букв и цифр, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-25. Поле "Исполнитель" состоит из спецсимволов, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-26. Поле "Дата" состоит из даты будущего года, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-27. Ручной ввод времени в поле "Время", при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-28. Ручной ввод времени в поле "Время", при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-29. Поле "Описание" пустое, при создании заявки во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-30. Редактирование заявки, находящаяся в статусе "Открыта" во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-31. Добавление комментария к заявке, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-32. Редактирование комментария к заявке, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-33. Смена статуса заявки, находящаяся в статусе "Открыта" на статус "В работе", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-34. Смена статуса заявки, находящаяся в статусе "Открыта" на статус "Отменена", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ТС-35. Смена статуса заявки, с истекшим сроком исполнения, находящаяся в статусе "Открыта" на статус "В работу", во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-36. Сброс заявки, находящаяся в статусе "В работе" , в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис" (Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-37. Сброс заявки, находящаяся в статусе "В работе" , в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-39. Исполнения заявки, находящаяся в статусе "В работе", в которой "Автоор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис" (Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-40. Просмотр новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-41. Сортировка новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-42. Фильтрация новостей по категории "Объявление", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-43. Фильтрация новостей по категории "День рождения", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-44. Фильтрация новостей по категории "Зарплата", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-45. Фильтрация новостей по категории "Профсоюз", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-46. Фильтрация новостей по категории "Праздник", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-47. Фильтрация новостей по категории "Массаж", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-48. Фильтрация новостей по категории "Благодарность", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-49. Фильтрация новостей по категории "Нужна помощь", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-50. Фильтрация новостей без указания категории, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-51. Поле "Категория" состоит из букв латинского алфавита и цифр, при фильтрации новостей, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-52. Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-53. Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-54. Сортировка новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-55. Просмотр новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-56. Удаление активной новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-57. Редактирование новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-58. Смена статуса новости, находящаяся в статусе "Активна" на статус "Не активна", во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-59. Фильтрация новостей по критерию "Активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-60. Фильтрация новостей по критерию "Не активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>2. Вкладка "Главная"</t>
   </si>
   <si>
     <t>Новости</t>
   </si>
   <si>
-    <t>Заявки</t>
-  </si>
-  <si>
     <t>3. Переход на вкладку "Все новости"</t>
   </si>
   <si>
-    <t>4. Переход на вкладку "Все заявки"</t>
-  </si>
-  <si>
-    <t>Фильтрация</t>
-  </si>
-  <si>
-    <t>5. Фильтрация заявок по критерию "Открыта"</t>
-  </si>
-  <si>
-    <t>6. Фильтрация заявок по критерию "В работе"</t>
-  </si>
-  <si>
-    <t>7. Фильтрация заявок по критерию "Выполнена"</t>
-  </si>
-  <si>
-    <t>8. Фильтрация заявок по критерию "Отмененные"</t>
-  </si>
-  <si>
-    <t>9. Создание заявки</t>
-  </si>
-  <si>
-    <t>Создание заявки</t>
-  </si>
-  <si>
-    <t>10. Редактирование заявки, находящаяся в статусе "Открыта"</t>
-  </si>
-  <si>
-    <t>11. Добавление комментария к созданной заявке</t>
-  </si>
-  <si>
-    <t>12. Редактирование комментария</t>
-  </si>
-  <si>
-    <t>13. Смена статуса заявки, находящаяся в статусе "Открыта"</t>
-  </si>
-  <si>
-    <t>14. Сброс заявки, находящейся в статусе "В работе", в которой "Автор" и "Исполнитель" заявки совпадают</t>
-  </si>
-  <si>
-    <t>15. Исполнение заявки</t>
-  </si>
-  <si>
-    <t>3. Вкладка "Заявки"</t>
-  </si>
-  <si>
-    <t>16. Просмотр новостей</t>
-  </si>
-  <si>
-    <t>17. Сортировка новостей</t>
-  </si>
-  <si>
-    <t>18. Фильтрация новостей по категории "Объявление"</t>
-  </si>
-  <si>
-    <t>19. Фильтрация новостей по категории "День рождения"</t>
-  </si>
-  <si>
-    <t>20. Фильтрация новостей по категории "Зарплата"</t>
-  </si>
-  <si>
-    <t>21. Фильтрация новостей по категории "Профсоюз"</t>
-  </si>
-  <si>
-    <t>22. Фильтрация новостей по категории "Праздник"</t>
-  </si>
-  <si>
-    <t>23. Фильтрация новостей по категории "Массаж"</t>
-  </si>
-  <si>
-    <t>24. Фильтрация новостей по категории "Благодарность"</t>
-  </si>
-  <si>
-    <t>25. Фильтрация новостей по категории "Нужна помощь"</t>
-  </si>
-  <si>
-    <t>26. Фильтрация новостей без указания категории</t>
-  </si>
-  <si>
-    <t>27. Фильтрация новостей, без указания категории, в определенный период времени</t>
-  </si>
-  <si>
     <t>Фильтр новостей</t>
   </si>
   <si>
-    <t>28. Сортировка вкладок новостей</t>
-  </si>
-  <si>
-    <t>29. Просмотр новостей</t>
-  </si>
-  <si>
-    <t>30. Удаление активной новости</t>
-  </si>
-  <si>
-    <t>31. Редактирование новости</t>
-  </si>
-  <si>
-    <t>32. Смена статуса новости находящаяся в статусе "Активна" на статус "Не активна"</t>
-  </si>
-  <si>
-    <t>33. Фильтрация новостей по критерию "Активна"</t>
-  </si>
-  <si>
-    <t>34. Фильтр новостей по категории "Не активна"</t>
-  </si>
-  <si>
-    <t>ТС-61. Создание новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-62. Поле "Категория" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-63. Поле "Заголовок" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-64. Поле "Дата публикации" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-65. Поле "Время" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-66. Поле "Описание" пустое, при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-67. Ввод в поле "Категория" собственного названия категории, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-68. Поле "Категория" состоит из цифр, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-69. Поле "Категория" состоит из спецсимволов, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-70. Поле "Дата публикации" состоит из даты будущего года, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-71. Ручной ввод времени в поле "Время", при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-72. Ручной ввод времени в поле "Время", при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
-  </si>
-  <si>
-    <t>ТС-73. Развернуть/свернуть тематическую цитату, во вкладке "Главное - жить любя", мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-74. Просмотр ссылки "Политика конфиденциальности" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-75. Просмотр ссылки "Пользовательское соглашение" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
     <t>6. Вкладка "О приложении"</t>
   </si>
   <si>
     <t>"О приложении"</t>
   </si>
   <si>
-    <t>37. Просмотр ссылок</t>
-  </si>
-  <si>
     <t>5. Тематические цитаты</t>
   </si>
   <si>
     <t>Тематические цитаты</t>
   </si>
   <si>
-    <t>36. Развернуть/свернуть тематическую цитату</t>
-  </si>
-  <si>
-    <t>35. Вкладка "Создание новости"</t>
-  </si>
-  <si>
     <t>Панель управления</t>
   </si>
   <si>
-    <t>4. Вкладка "Новости"</t>
-  </si>
-  <si>
     <t>Пройден</t>
   </si>
   <si>
     <t>Высокий</t>
-  </si>
-  <si>
-    <t>ТС-13. Переход во вкладку "Все Заявки" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
-  </si>
-  <si>
-    <t>ТС-12. Переход во вкладку "Все Новости" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
   </si>
   <si>
     <t>ТС-11. Поле "Пароль" состоит из букв разного регистра, при авторизации, в мобильном приложении "Мобильный хоспис"(Негативный)</t>
@@ -434,7 +128,184 @@
 (найден дефект: "Пользовательское соглашение не отображается на экране")</t>
   </si>
   <si>
-    <t>ТС-38. Исполнения заявки, находящаяся в статусе "В работе", в которой "Автор" и "Исполнитель" заявки совпадают, во вкладке "Заявки" мобильного приложения "Мобильный хоспис"(Позитивный</t>
+    <t>3. Вкладка "Новости"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТС-12. Переход во вкладку "Все Новости" через главное меню мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>5. Просмотр новостей</t>
+  </si>
+  <si>
+    <t>6. Сортировка новостей</t>
+  </si>
+  <si>
+    <t>7. Фильтрация новостей по категории "Объявление"</t>
+  </si>
+  <si>
+    <t>8. Фильтрация новостей по категории "День рождения"</t>
+  </si>
+  <si>
+    <t>9. Фильтрация новостей по категории "Зарплата"</t>
+  </si>
+  <si>
+    <t>10. Фильтрация новостей по категории "Профсоюз"</t>
+  </si>
+  <si>
+    <t>11. Фильтрация новостей по категории "Праздник"</t>
+  </si>
+  <si>
+    <t>12. Фильтрация новостей по категории "Массаж"</t>
+  </si>
+  <si>
+    <t>13. Фильтрация новостей по категории "Благодарность"</t>
+  </si>
+  <si>
+    <t>14. Фильтрация новостей по категории "Нужна помощь"</t>
+  </si>
+  <si>
+    <t>15. Фильтрация новостей без указания категории</t>
+  </si>
+  <si>
+    <t>16. Фильтрация новостей, без указания категории, в определенный период времени</t>
+  </si>
+  <si>
+    <t>17. Сортировка вкладок новостей</t>
+  </si>
+  <si>
+    <t>18. Просмотр новостей</t>
+  </si>
+  <si>
+    <t>19. Удаление активной новости</t>
+  </si>
+  <si>
+    <t>20. Редактирование новости</t>
+  </si>
+  <si>
+    <t>21. Смена статуса новости находящаяся в статусе "Активна" на статус "Не активна"</t>
+  </si>
+  <si>
+    <t>22. Фильтрация новостей по критерию "Активна"</t>
+  </si>
+  <si>
+    <t>23. Фильтр новостей по категории "Не активна"</t>
+  </si>
+  <si>
+    <t>24. Вкладка "Создание новости"</t>
+  </si>
+  <si>
+    <t>25. Развернуть/свернуть тематическую цитату</t>
+  </si>
+  <si>
+    <t>26. Просмотр ссылок</t>
+  </si>
+  <si>
+    <t>ТС-13. Просмотр новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-14. Сортировка новостей во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-15. Фильтрация новостей по категории "Объявление", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-16. Фильтрация новостей по категории "День рождения", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-17. Фильтрация новостей по категории "Зарплата", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-18. Фильтрация новостей по категории "Профсоюз", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-19. Фильтрация новостей по категории "Праздник", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-20. Фильтрация новостей по категории "Массаж", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-21. Фильтрация новостей по категории "Благодарность", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-22. Фильтрация новостей по категории "Нужна помощь", во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-23. Фильтрация новостей без указания категории, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-24. Поле "Категория" состоит из букв латинского алфавита и цифр, при фильтрации новостей, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-25. Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-26. Фильтрация новостей, без указания категории, в определенный период времени, во вкладке "Новости" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-27. Сортировка новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-28. Просмотр новостей во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-29. Удаление активной новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-30. Редактирование новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-31. Смена статуса новости, находящаяся в статусе "Активна" на статус "Не активна", во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-32. Фильтрация новостей по критерию "Активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-33. Фильтрация новостей по критерию "Не активна", во вкладке "Панель управления" новостей мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-34. Создание новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-35. Поле "Категория" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-36. Поле "Заголовок" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-37. Поле "Дата публикации" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-38. Поле "Время" пустое, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-39. Поле "Описание" пустое, при создании новости во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-40. Ввод в поле "Категория" собственного названия категории, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-41. Поле "Категория" состоит из цифр, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-42. Поле "Категория" состоит из спецсимволов, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-43. Поле "Дата публикации" состоит из даты будущего года, при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-44. Ручной ввод времени в поле "Время", при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-45. Ручной ввод времени в поле "Время", при создании новости, во вкладке "Панель управления" мобильного приложения "Мобильный хоспис"(Негативный)</t>
+  </si>
+  <si>
+    <t>ТС-46. Развернуть/свернуть тематическую цитату, во вкладке "Главное - жить любя", мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-47. Просмотр ссылки "Политика конфиденциальности" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
+  </si>
+  <si>
+    <t>ТС-48. Просмотр ссылки "Пользовательское соглашение" во вкладке "О приложении" мобильного приложения "Мобильный хоспис"(Позитивный)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -766,11 +637,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -820,15 +700,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,6 +709,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,15 +722,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -880,6 +748,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1160,24 +1030,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1200,1236 +1070,1042 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="6" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
+    <row r="7" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32" t="s">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="6" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="6" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+    <row r="12" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="6" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="D48" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="6" t="s">
+      <c r="D49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="6" t="s">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2438,7 +2114,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2447,7 +2123,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2456,7 +2132,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2465,7 +2141,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2474,7 +2150,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2483,7 +2159,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2492,7 +2168,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2501,7 +2177,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2510,7 +2186,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2519,7 +2195,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2528,7 +2204,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2537,7 +2213,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2546,7 +2222,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2555,7 +2231,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2564,7 +2240,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2573,7 +2249,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2582,7 +2258,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2591,7 +2267,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2600,7 +2276,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2609,7 +2285,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2618,7 +2294,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2627,7 +2303,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2636,7 +2312,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2645,7 +2321,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2654,7 +2330,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2663,7 +2339,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2672,7 +2348,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2681,7 +2357,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2690,7 +2366,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2699,7 +2375,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2708,7 +2384,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2717,7 +2393,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2726,7 +2402,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2735,7 +2411,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2744,7 +2420,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2753,7 +2429,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2762,7 +2438,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -2771,7 +2447,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -2780,7 +2456,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -2789,7 +2465,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -2798,7 +2474,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -2807,7 +2483,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -2816,7 +2492,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -2825,7 +2501,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2834,7 +2510,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -2843,7 +2519,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -2852,7 +2528,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2861,7 +2537,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2870,7 +2546,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2879,7 +2555,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2888,7 +2564,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2897,7 +2573,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2906,7 +2582,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2915,7 +2591,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2924,7 +2600,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2933,7 +2609,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2942,7 +2618,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2951,7 +2627,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2960,7 +2636,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2969,7 +2645,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2978,7 +2654,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2987,7 +2663,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2996,7 +2672,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -3005,7 +2681,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -3014,7 +2690,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -3023,7 +2699,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -3032,7 +2708,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -3041,7 +2717,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -3050,7 +2726,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -3059,7 +2735,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -3068,7 +2744,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -3077,7 +2753,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -3086,7 +2762,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -3095,7 +2771,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -3104,7 +2780,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -3113,7 +2789,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -3122,7 +2798,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -3131,7 +2807,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -3140,7 +2816,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -3149,7 +2825,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -3158,7 +2834,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -3167,7 +2843,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -3176,7 +2852,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -3185,7 +2861,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -3194,7 +2870,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -3203,7 +2879,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -3212,7 +2888,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -3221,7 +2897,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -3230,7 +2906,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -3239,7 +2915,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -3248,7 +2924,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -3257,7 +2933,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -3266,7 +2942,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -3275,7 +2951,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -3284,7 +2960,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -3293,7 +2969,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -3302,7 +2978,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -3311,7 +2987,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -3320,7 +2996,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -3329,7 +3005,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -3338,7 +3014,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -3347,7 +3023,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -3356,7 +3032,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -3365,7 +3041,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -3374,7 +3050,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -3383,7 +3059,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -3392,7 +3068,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -3401,7 +3077,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -3410,7 +3086,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -3419,7 +3095,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -3428,7 +3104,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -3437,7 +3113,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -3446,7 +3122,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -3455,7 +3131,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -3464,7 +3140,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -3473,7 +3149,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -3482,7 +3158,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -3491,7 +3167,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -3500,7 +3176,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -3509,7 +3185,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -3518,7 +3194,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -3527,7 +3203,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -3536,7 +3212,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -3545,7 +3221,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -3554,7 +3230,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -3563,7 +3239,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -3572,7 +3248,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -3581,7 +3257,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -3590,7 +3266,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -3599,7 +3275,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -3608,7 +3284,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -3617,7 +3293,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -3626,7 +3302,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -3635,7 +3311,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -3644,7 +3320,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -3653,7 +3329,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -3662,7 +3338,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -3671,7 +3347,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -3680,7 +3356,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -3689,7 +3365,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -3698,7 +3374,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -3707,7 +3383,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -3716,7 +3392,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -3725,7 +3401,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -3734,7 +3410,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -3743,7 +3419,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -3752,7 +3428,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -3761,7 +3437,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -3770,7 +3446,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -3779,7 +3455,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -3788,7 +3464,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -3797,7 +3473,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -3806,7 +3482,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -3815,7 +3491,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -3824,7 +3500,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -3833,7 +3509,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -3842,7 +3518,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -3851,7 +3527,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -3860,7 +3536,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -3869,7 +3545,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -3878,7 +3554,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -3887,7 +3563,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -3896,7 +3572,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -3905,7 +3581,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -3914,7 +3590,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -3923,7 +3599,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -3932,7 +3608,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -3941,7 +3617,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -3950,7 +3626,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -3959,7 +3635,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -3968,7 +3644,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -3977,7 +3653,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -3986,7 +3662,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -3995,7 +3671,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -4004,7 +3680,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -4013,7 +3689,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -4022,7 +3698,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -4031,7 +3707,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -4040,7 +3716,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -4049,7 +3725,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -4058,7 +3734,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -4067,7 +3743,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -4076,7 +3752,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -4085,7 +3761,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -4094,7 +3770,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -4103,7 +3779,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -4112,7 +3788,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -4121,7 +3797,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -4130,7 +3806,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -4139,7 +3815,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -4148,7 +3824,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -4157,7 +3833,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -4166,7 +3842,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -4175,7 +3851,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -4184,7 +3860,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -4193,7 +3869,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -4202,7 +3878,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -4211,7 +3887,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -4220,7 +3896,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -4229,7 +3905,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -4238,7 +3914,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -4247,7 +3923,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -4256,7 +3932,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -4265,7 +3941,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -4274,7 +3950,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -4283,7 +3959,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -4292,7 +3968,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -4301,7 +3977,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -4310,7 +3986,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -4319,7 +3995,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -4328,7 +4004,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -4337,7 +4013,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -4346,7 +4022,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -4355,7 +4031,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -4364,7 +4040,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -4373,7 +4049,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -4382,7 +4058,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -4391,7 +4067,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -4400,7 +4076,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -4409,7 +4085,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -4418,7 +4094,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -4427,7 +4103,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -4436,7 +4112,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -4445,7 +4121,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -4454,7 +4130,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -4463,7 +4139,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -4472,7 +4148,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -4481,7 +4157,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -4490,7 +4166,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -4499,7 +4175,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -4508,7 +4184,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -4517,7 +4193,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -4526,7 +4202,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -4535,7 +4211,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -4544,7 +4220,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -4553,7 +4229,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -4562,7 +4238,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -4571,7 +4247,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -4580,7 +4256,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -4589,7 +4265,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -4598,7 +4274,7 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -4607,7 +4283,7 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -4616,7 +4292,7 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -4625,7 +4301,7 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -4634,7 +4310,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -4643,7 +4319,7 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -4652,7 +4328,7 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -4661,7 +4337,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -4670,7 +4346,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -4679,7 +4355,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -4688,7 +4364,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -4697,7 +4373,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -4706,7 +4382,7 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -4715,7 +4391,7 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -4724,7 +4400,7 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -4733,7 +4409,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -4742,7 +4418,7 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -4751,7 +4427,7 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -4760,7 +4436,7 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -4769,7 +4445,7 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -4778,7 +4454,7 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -4787,7 +4463,7 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -4796,7 +4472,7 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -4805,7 +4481,7 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -4814,7 +4490,7 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -4823,7 +4499,7 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -4832,7 +4508,7 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -4841,7 +4517,7 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -4850,7 +4526,7 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -4859,7 +4535,7 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -4868,7 +4544,7 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -4877,7 +4553,7 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -4886,7 +4562,7 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -4895,7 +4571,7 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -4904,7 +4580,7 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -4913,7 +4589,7 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -4922,7 +4598,7 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -4931,7 +4607,7 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -4940,7 +4616,7 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -4949,7 +4625,7 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -4958,7 +4634,7 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -4967,7 +4643,7 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -4976,7 +4652,7 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -4985,7 +4661,7 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -4994,7 +4670,7 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -5003,7 +4679,7 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -5012,7 +4688,7 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -5021,7 +4697,7 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -5030,7 +4706,7 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -5039,7 +4715,7 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -5048,7 +4724,7 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -5057,7 +4733,7 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -5066,7 +4742,7 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -5075,7 +4751,7 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -5084,7 +4760,7 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -5093,7 +4769,7 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -5102,7 +4778,7 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -5111,7 +4787,7 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -5120,7 +4796,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -5129,7 +4805,7 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -5138,7 +4814,7 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -5147,7 +4823,7 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -5156,7 +4832,7 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -5165,7 +4841,7 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -5174,7 +4850,7 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -5183,7 +4859,7 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -5192,7 +4868,7 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -5201,7 +4877,7 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -5210,7 +4886,7 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -5219,7 +4895,7 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -5228,7 +4904,7 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -5237,7 +4913,7 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -5246,7 +4922,7 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -5255,7 +4931,7 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -5264,7 +4940,7 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -5273,7 +4949,7 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -5282,7 +4958,7 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -5291,7 +4967,7 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -5300,7 +4976,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -5309,7 +4985,7 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -5318,7 +4994,7 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="8"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -5327,7 +5003,7 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -5336,7 +5012,7 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -5345,7 +5021,7 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -5354,7 +5030,7 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -5363,7 +5039,7 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="8"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -5372,263 +5048,22 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="8"/>
-      <c r="D404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="8"/>
-      <c r="B405" s="8"/>
-      <c r="C405" s="8"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="8"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="8"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="8"/>
-      <c r="B407" s="8"/>
-      <c r="C407" s="8"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="8"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="8"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="8"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="8"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="8"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="8"/>
-      <c r="B413" s="8"/>
-      <c r="C413" s="8"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="8"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="8"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="8"/>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="8"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="8"/>
-      <c r="B419" s="8"/>
-      <c r="C419" s="8"/>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="8"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
-      <c r="D420" s="1"/>
-      <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
-      <c r="D421" s="1"/>
-      <c r="E421" s="1"/>
-      <c r="F421" s="1"/>
-      <c r="G421" s="1"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="8"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-      <c r="F422" s="1"/>
-      <c r="G422" s="1"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="8"/>
-      <c r="D423" s="1"/>
-      <c r="E423" s="1"/>
-      <c r="F423" s="1"/>
-      <c r="G423" s="1"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
-      <c r="D424" s="1"/>
-      <c r="E424" s="1"/>
-      <c r="F424" s="1"/>
-      <c r="G424" s="1"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8"/>
-      <c r="D425" s="1"/>
-      <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="8"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="D426" s="1"/>
-      <c r="E426" s="1"/>
-      <c r="F426" s="1"/>
-      <c r="G426" s="1"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="8"/>
-      <c r="B427" s="8"/>
-      <c r="C427" s="8"/>
-      <c r="D427" s="1"/>
-      <c r="E427" s="1"/>
-      <c r="F427" s="1"/>
-      <c r="G427" s="1"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
-      <c r="D428" s="1"/>
-      <c r="E428" s="1"/>
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="8"/>
-      <c r="B429" s="8"/>
-      <c r="C429" s="8"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="14">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A40"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B41:B54"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C62:C73"/>
-    <mergeCell ref="B55:B73"/>
-    <mergeCell ref="A41:A73"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="B19:B40"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C36:C47"/>
+    <mergeCell ref="B29:B47"/>
+    <mergeCell ref="A15:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
